--- a/zoznamy.xlsx
+++ b/zoznamy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukyf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8677F1-B248-45D1-B385-53E9FC76191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1542A8C0-8D93-4214-96A0-15A94E2894B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="760" windowWidth="19940" windowHeight="12580" activeTab="1" xr2:uid="{98BA4341-D292-4876-980F-726266FA3AD7}"/>
+    <workbookView xWindow="340" yWindow="760" windowWidth="17340" windowHeight="12580" activeTab="1" xr2:uid="{98BA4341-D292-4876-980F-726266FA3AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="STROJE" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,6 +474,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -843,7 +844,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1197,7 +1198,7 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="10">
@@ -1214,8 +1215,8 @@
       <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6">
-        <v>5.0000000000000001E-4</v>
+      <c r="D3" s="11">
+        <v>0.05</v>
       </c>
       <c r="E3" s="10">
         <v>420224613512</v>
@@ -1231,8 +1232,8 @@
       <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="6">
-        <v>3.2099999999999997E-2</v>
+      <c r="D4" s="11">
+        <v>3.21</v>
       </c>
       <c r="E4" s="10">
         <v>420775445998</v>
@@ -1248,7 +1249,7 @@
       <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="10">
@@ -1265,8 +1266,8 @@
       <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="6">
-        <v>2.9999999999999997E-4</v>
+      <c r="D6" s="11">
+        <v>0.03</v>
       </c>
       <c r="E6" s="10">
         <v>421603511862</v>
@@ -1282,8 +1283,8 @@
       <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="6">
-        <v>4.5999999999999999E-2</v>
+      <c r="D7" s="11">
+        <v>4.5999999999999996</v>
       </c>
       <c r="E7" s="10">
         <v>420387412558</v>
@@ -1299,8 +1300,8 @@
       <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.57999999999999996</v>
+      <c r="D8" s="11">
+        <v>58</v>
       </c>
       <c r="E8" s="10">
         <v>420468235430</v>
@@ -1316,7 +1317,7 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>0.02</v>
       </c>
       <c r="E9" s="10">
@@ -1333,7 +1334,7 @@
       <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="11">
         <v>0</v>
       </c>
       <c r="E10" s="10">
@@ -1350,8 +1351,8 @@
       <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="6">
-        <v>1.2E-2</v>
+      <c r="D11" s="11">
+        <v>1.2</v>
       </c>
       <c r="E11" s="10">
         <v>420607284912</v>

--- a/zoznamy.xlsx
+++ b/zoznamy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukyf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1542A8C0-8D93-4214-96A0-15A94E2894B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D28C22-45B5-4AF9-89F1-FA602854BBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="760" windowWidth="17340" windowHeight="12580" activeTab="1" xr2:uid="{98BA4341-D292-4876-980F-726266FA3AD7}"/>
+    <workbookView xWindow="340" yWindow="760" windowWidth="17340" windowHeight="12580" xr2:uid="{98BA4341-D292-4876-980F-726266FA3AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="STROJE" sheetId="1" r:id="rId1"/>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBF50F6-5505-4D26-A935-691300EBEE5D}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,7 +904,7 @@
         <v>3000</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -1012,7 +1012,7 @@
         <v>2000</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -1063,7 +1063,7 @@
         <v>13000</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0AD510-D144-4E0A-8916-85E0274F2538}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
